--- a/Course2/sources/WiresSIP.xlsx
+++ b/Course2/sources/WiresSIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Course2\Course2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CF867-000C-4A9A-98CA-FB532CC016FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EDC1AE-F307-4FE8-B43A-FD76F553EBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3938" yWindow="2790" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Количество и сечение проводов фаз, мм ; сечение нулевого провода, мм</t>
   </si>
@@ -94,24 +94,6 @@
   </si>
   <si>
     <t>3×240 + 1×95</t>
-  </si>
-  <si>
-    <t>0, 0584</t>
-  </si>
-  <si>
-    <t>0, 0587</t>
-  </si>
-  <si>
-    <t>0, 0595</t>
-  </si>
-  <si>
-    <t>0, 0599</t>
-  </si>
-  <si>
-    <t>0, 0604</t>
-  </si>
-  <si>
-    <t>0, 0600</t>
   </si>
 </sst>
 </file>
@@ -154,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -163,6 +145,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -611,322 +594,343 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>1.054</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>7.9100000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>1.054</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>1.054</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>1.054</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>7.7399999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>0.06</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>7.8100000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>7.5300000000000006E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>0.26500000000000001</v>
       </c>
